--- a/medicine/Sexualité et sexologie/Liste_de_jeux_de_rôle_et_pratiques_BDSM/Liste_de_jeux_de_rôle_et_pratiques_BDSM.xlsx
+++ b/medicine/Sexualité et sexologie/Liste_de_jeux_de_rôle_et_pratiques_BDSM/Liste_de_jeux_de_rôle_et_pratiques_BDSM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_jeux_de_r%C3%B4le_et_pratiques_BDSM</t>
+          <t>Liste_de_jeux_de_rôle_et_pratiques_BDSM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article établit une liste de jeux de rôle et pratiques BDSM. Le sigle BDSM (pour Bondage - Discipline, Domination - Soumission, Sado-Masochisme) désigne une forme d'échange contractuel utilisant la douleur, la contrainte, l'humiliation ou la mise en scène de divers fantasmes dans un but érogène. Certaines pratiques sont mixtes, d'autres sont adaptées pour l'homme ou la femme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_jeux_de_r%C3%B4le_et_pratiques_BDSM</t>
+          <t>Liste_de_jeux_de_rôle_et_pratiques_BDSM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,23 +525,97 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Contraintes
-Bondage  et utilisation de menottes, cordes, colliers, bâillons, chaînes, cagoules contraignantes, vacuum bed, sleeping bag en cuir, toile renforcée de cuir ou en latex, monogant, palan de suspension.
+          <t>Contraintes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bondage  et utilisation de menottes, cordes, colliers, bâillons, chaînes, cagoules contraignantes, vacuum bed, sleeping bag en cuir, toile renforcée de cuir ou en latex, monogant, palan de suspension.
 Camisoles.
 Privation sensorielle comme l'asphyxie érotique.
 Momification.
 Tonte et rasage des cheveux, du pubis, des aisselles, du reste du corps.
 Corset, port de corset, minerve, vêtements contraignants.
-Enfermement.
-Jeux dominants dominés
-Fantasme d’être pendu, étranglé ou noyé[1].
+Enfermement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_jeux_de_rôle_et_pratiques_BDSM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jeux_de_r%C3%B4le_et_pratiques_BDSM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Jeux mixtes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Jeux dominants dominés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Fantasme d’être pendu, étranglé ou noyé.
 Humiliations par des tenues, des insultes ou des positions.
 Chantage.
 Jeux de bougie.
 Électro-stimulation, pénétration par un plug branché sur pile, colliers pour encercler les testicules, le sexe.
-Piétinement du corps du sujet (pratique appelée trampling par les Anglo-saxons).
-Sexualité
-Chasteté : port d'une cage chasteté pour l'homme et d'une ceinture de chasteté chez la femme.
+Piétinement du corps du sujet (pratique appelée trampling par les Anglo-saxons).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_jeux_de_rôle_et_pratiques_BDSM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_jeux_de_r%C3%B4le_et_pratiques_BDSM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Jeux mixtes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sexualité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chasteté : port d'une cage chasteté pour l'homme et d'une ceinture de chasteté chez la femme.
 Privation d'orgasme.
 Utilisation d'un rosebud, plug porté par le soumis ou la soumise.
 Facesitting.
@@ -549,33 +635,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_jeux_de_r%C3%B4le_et_pratiques_BDSM</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_jeux_de_rôle_et_pratiques_BDSM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_jeux_de_r%C3%B4le_et_pratiques_BDSM</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Jeux de rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Adoration du maître ou de la Maîtresse[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Adoration du maître ou de la Maîtresse.
 Jeux de rôle, retour à l'enfance..
 Jeux de service, valet ou femme de ménage par exemple.
 Devenir animal, cheval, chien, chienne, porc, truie.
@@ -590,62 +678,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_jeux_de_r%C3%B4le_et_pratiques_BDSM</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_jeux_de_rôle_et_pratiques_BDSM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_jeux_de_r%C3%B4le_et_pratiques_BDSM</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Femmes seules</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Port d'un œuf dans le ventre de la soumise ou d'un plug ou encore d'un papillon sur le clitoris.
 Bondage et torture des seins, notamment à l'aide de pinces à sein.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_jeux_de_r%C3%B4le_et_pratiques_BDSM</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_jeux_de_rôle_et_pratiques_BDSM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_jeux_de_r%C3%B4le_et_pratiques_BDSM</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Hommes seuls</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Féminisation, les hommes pouvant ainsi exprimer le désir de performer un rôle de genre féminin.
 Ballbusting, pratique des coups portés aux testicules.
